--- a/Participant_id_analysis.xlsx
+++ b/Participant_id_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpaulmintz/oTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA89E4A-4DD6-674C-B129-EF1015391A39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53610E4C-CCA8-B043-872F-E02952F0A06E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" activeTab="1" xr2:uid="{D869964A-499F-B04C-BB64-21786E859E06}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15500" xr2:uid="{D869964A-499F-B04C-BB64-21786E859E06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1307,18 +1307,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52678E2A-6775-8B41-B361-D8E2FCFFE3AB}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20">
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>278</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>301</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>302</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>280</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>281</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>292</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>105</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>106</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>109</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>293</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>111</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>113</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>119</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>120</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>125</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>128</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>130</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>134</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>135</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>136</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>137</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>138</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>139</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>146</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>147</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>148</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>297</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>149</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>150</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>151</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>154</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>155</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>156</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>157</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>158</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>159</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>160</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>161</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>162</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>299</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>163</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>164</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>167</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>168</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>169</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>171</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>172</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>173</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>284</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>175</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>176</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>177</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>178</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>179</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>180</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>181</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>182</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>183</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>185</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>298</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>188</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>189</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>190</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>191</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>192</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>193</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>194</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>195</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>196</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>197</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>198</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>199</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>200</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>201</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>202</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>203</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>205</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>206</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>207</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>208</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>209</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>210</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>211</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>212</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>213</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>214</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>215</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>217</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>218</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>219</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>220</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>221</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>222</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>223</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>224</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>225</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>226</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>227</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>228</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>229</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>230</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>231</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>232</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>233</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>234</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>235</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>236</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>237</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>238</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>239</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>240</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>241</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>242</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>243</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>244</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>245</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>285</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>246</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>286</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>247</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>248</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>249</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>250</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>251</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>252</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>253</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>254</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>255</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>256</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>257</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>258</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>259</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>260</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>261</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>262</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>264</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>265</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>266</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>267</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>268</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>269</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>287</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>271</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>272</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>273</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>274</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>275</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>276</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>277</v>
       </c>
@@ -5281,18 +5281,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FDB3FC-C30E-E545-8E24-7220148A1411}">
-  <dimension ref="A1:V353"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A87" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="22" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="50" customHeight="1">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>Sheet1!A2</f>
         <v>et951</v>
@@ -5305,84 +5305,8 @@
         <f>Sheet1!A30</f>
         <v>j3e82</v>
       </c>
-      <c r="D1" s="4" t="str">
-        <f>Sheet1!A44</f>
-        <v>vcb13</v>
-      </c>
-      <c r="E1" s="4" t="str">
-        <f>Sheet1!A58</f>
-        <v>nry64</v>
-      </c>
-      <c r="F1" s="4" t="str">
-        <f>Sheet1!A72</f>
-        <v>0hi84</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <f>Sheet1!A86</f>
-        <v>ndm42</v>
-      </c>
-      <c r="H1" s="4" t="str">
-        <f>Sheet1!A100</f>
-        <v>vu321</v>
-      </c>
-      <c r="I1" s="4" t="str">
-        <f>Sheet1!A114</f>
-        <v>2b574</v>
-      </c>
-      <c r="J1" s="4" t="str">
-        <f>Sheet1!A128</f>
-        <v>d4x41</v>
-      </c>
-      <c r="K1" s="4" t="str">
-        <f>Sheet1!A142</f>
-        <v>dyf23</v>
-      </c>
-      <c r="L1" s="4" t="str">
-        <f>Sheet1!A156</f>
-        <v>kpt63</v>
-      </c>
-      <c r="M1" s="4" t="str">
-        <f>Sheet1!A170</f>
-        <v>srt41</v>
-      </c>
-      <c r="N1" s="4" t="str">
-        <f>Sheet1!A184</f>
-        <v>zxq33</v>
-      </c>
-      <c r="O1" s="4" t="str">
-        <f>Sheet1!A198</f>
-        <v>fmy53</v>
-      </c>
-      <c r="P1" s="4" t="str">
-        <f>Sheet1!A212</f>
-        <v>guy22</v>
-      </c>
-      <c r="Q1" s="4" t="str">
-        <f>Sheet1!A226</f>
-        <v>7i786</v>
-      </c>
-      <c r="R1" s="4" t="str">
-        <f>Sheet1!A240</f>
-        <v>9fb54</v>
-      </c>
-      <c r="S1" s="4" t="str">
-        <f>Sheet1!A254</f>
-        <v>y5526</v>
-      </c>
-      <c r="T1" s="4" t="str">
-        <f>Sheet1!A268</f>
-        <v>i8574</v>
-      </c>
-      <c r="U1" s="4" t="str">
-        <f>Sheet1!A282</f>
-        <v>d0y85</v>
-      </c>
-      <c r="V1" s="4" t="str">
-        <f>Sheet1!A296</f>
-        <v>d7g11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>Sheet1!A3</f>
         <v>w1y55</v>
@@ -5395,84 +5319,8 @@
         <f>Sheet1!A31</f>
         <v>3ri12</v>
       </c>
-      <c r="D2" s="4" t="str">
-        <f>Sheet1!A45</f>
-        <v>w2z31</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>Sheet1!A59</f>
-        <v>9lh31</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>Sheet1!A73</f>
-        <v>lsj64</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>Sheet1!A87</f>
-        <v>dal34</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>Sheet1!A101</f>
-        <v>5vi61</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f>Sheet1!A115</f>
-        <v>tv364</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>Sheet1!A129</f>
-        <v>b8g12</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>Sheet1!A143</f>
-        <v>6lk32</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>Sheet1!A157</f>
-        <v>eyk62</v>
-      </c>
-      <c r="M2" s="4" t="str">
-        <f>Sheet1!A171</f>
-        <v>u7a84</v>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>Sheet1!A185</f>
-        <v>gs065</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>Sheet1!A199</f>
-        <v>3x985</v>
-      </c>
-      <c r="P2" s="4" t="str">
-        <f>Sheet1!A213</f>
-        <v>txk36</v>
-      </c>
-      <c r="Q2" s="4" t="str">
-        <f>Sheet1!A227</f>
-        <v>o9i83</v>
-      </c>
-      <c r="R2" s="4" t="str">
-        <f>Sheet1!A241</f>
-        <v>qh065</v>
-      </c>
-      <c r="S2" s="4" t="str">
-        <f>Sheet1!A255</f>
-        <v>mfb44</v>
-      </c>
-      <c r="T2" s="4" t="str">
-        <f>Sheet1!A269</f>
-        <v>5gj22</v>
-      </c>
-      <c r="U2" s="4" t="str">
-        <f>Sheet1!A283</f>
-        <v>hvu33</v>
-      </c>
-      <c r="V2" s="4" t="str">
-        <f>Sheet1!A297</f>
-        <v>btl36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Sheet1!A4</f>
         <v>oug55</v>
@@ -5485,84 +5333,8 @@
         <f>Sheet1!A32</f>
         <v>rrv75</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f>Sheet1!A46</f>
-        <v>42m46</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>Sheet1!A60</f>
-        <v>bce15</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f>Sheet1!A74</f>
-        <v>hcu64</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>Sheet1!A88</f>
-        <v>agb86</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f>Sheet1!A102</f>
-        <v>b6j23</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>Sheet1!A116</f>
-        <v>go346</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f>Sheet1!A130</f>
-        <v>30i65</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>Sheet1!A144</f>
-        <v>nmn84</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>Sheet1!A158</f>
-        <v>ntf82</v>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f>Sheet1!A172</f>
-        <v>5k186</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f>Sheet1!A186</f>
-        <v>e4p65</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f>Sheet1!A200</f>
-        <v>8wl55</v>
-      </c>
-      <c r="P3" s="4" t="str">
-        <f>Sheet1!A214</f>
-        <v>aq323</v>
-      </c>
-      <c r="Q3" s="4" t="str">
-        <f>Sheet1!A228</f>
-        <v>45b85</v>
-      </c>
-      <c r="R3" s="4" t="str">
-        <f>Sheet1!A242</f>
-        <v>5yb72</v>
-      </c>
-      <c r="S3" s="4" t="str">
-        <f>Sheet1!A256</f>
-        <v>kzj85</v>
-      </c>
-      <c r="T3" s="4" t="str">
-        <f>Sheet1!A270</f>
-        <v>p2113</v>
-      </c>
-      <c r="U3" s="4" t="str">
-        <f>Sheet1!A284</f>
-        <v>3fg63</v>
-      </c>
-      <c r="V3" s="4" t="str">
-        <f>Sheet1!A298</f>
-        <v>q5246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
         <f>Sheet1!A5</f>
         <v>hbd84</v>
@@ -5575,84 +5347,8 @@
         <f>Sheet1!A33</f>
         <v>sae63</v>
       </c>
-      <c r="D4" s="4" t="str">
-        <f>Sheet1!A47</f>
-        <v>bei33</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>Sheet1!A61</f>
-        <v>4ht21</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f>Sheet1!A75</f>
-        <v>cuy62</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>Sheet1!A89</f>
-        <v>c4655</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f>Sheet1!A103</f>
-        <v>e6e36</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f>Sheet1!A117</f>
-        <v>f9463</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f>Sheet1!A131</f>
-        <v>sid22</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>Sheet1!A145</f>
-        <v>5vn54</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f>Sheet1!A159</f>
-        <v>kdr26</v>
-      </c>
-      <c r="M4" s="4" t="str">
-        <f>Sheet1!A173</f>
-        <v>ha843</v>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f>Sheet1!A187</f>
-        <v>xt462</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f>Sheet1!A201</f>
-        <v>9em63</v>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f>Sheet1!A215</f>
-        <v>epb14</v>
-      </c>
-      <c r="Q4" s="4" t="str">
-        <f>Sheet1!A229</f>
-        <v>ckr44</v>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f>Sheet1!A243</f>
-        <v>ovs74</v>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f>Sheet1!A257</f>
-        <v>qc621</v>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f>Sheet1!A271</f>
-        <v>b1462</v>
-      </c>
-      <c r="U4" s="4" t="str">
-        <f>Sheet1!A285</f>
-        <v>wv056</v>
-      </c>
-      <c r="V4" s="4" t="str">
-        <f>Sheet1!A299</f>
-        <v>9yl53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f>Sheet1!A6</f>
         <v>i6224</v>
@@ -5665,84 +5361,8 @@
         <f>Sheet1!A34</f>
         <v>i1434</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f>Sheet1!A48</f>
-        <v>qm561</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>Sheet1!A62</f>
-        <v>vm332</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>Sheet1!A76</f>
-        <v>bs272</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>Sheet1!A90</f>
-        <v>ctw11</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f>Sheet1!A104</f>
-        <v>e2354</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f>Sheet1!A118</f>
-        <v>0mv55</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>Sheet1!A132</f>
-        <v>i5b85</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>Sheet1!A146</f>
-        <v>hzb46</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f>Sheet1!A160</f>
-        <v>ovr55</v>
-      </c>
-      <c r="M5" s="4" t="str">
-        <f>Sheet1!A174</f>
-        <v>sko34</v>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f>Sheet1!A188</f>
-        <v>yyj35</v>
-      </c>
-      <c r="O5" s="4" t="str">
-        <f>Sheet1!A202</f>
-        <v>wq272</v>
-      </c>
-      <c r="P5" s="4" t="str">
-        <f>Sheet1!A216</f>
-        <v>tnm25</v>
-      </c>
-      <c r="Q5" s="4" t="str">
-        <f>Sheet1!A230</f>
-        <v>cmd44</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f>Sheet1!A244</f>
-        <v>4pn14</v>
-      </c>
-      <c r="S5" s="4" t="str">
-        <f>Sheet1!A258</f>
-        <v>s4441</v>
-      </c>
-      <c r="T5" s="4" t="str">
-        <f>Sheet1!A272</f>
-        <v>w9c21</v>
-      </c>
-      <c r="U5" s="4" t="str">
-        <f>Sheet1!A286</f>
-        <v>m4642</v>
-      </c>
-      <c r="V5" s="4" t="str">
-        <f>Sheet1!A300</f>
-        <v>7pl25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f>Sheet1!A7</f>
         <v>cth76</v>
@@ -5755,84 +5375,8 @@
         <f>Sheet1!A35</f>
         <v>tkx16</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f>Sheet1!A49</f>
-        <v>ubp14</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>Sheet1!A63</f>
-        <v>7w712</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f>Sheet1!A77</f>
-        <v>7s511</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>Sheet1!A91</f>
-        <v>7x173</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f>Sheet1!A105</f>
-        <v>8ta45</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f>Sheet1!A119</f>
-        <v>p8q25</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f>Sheet1!A133</f>
-        <v>dkj82</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>Sheet1!A147</f>
-        <v>z3m85</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>Sheet1!A161</f>
-        <v>cfk44</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>Sheet1!A175</f>
-        <v>hym35</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>Sheet1!A189</f>
-        <v>upt12</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f>Sheet1!A203</f>
-        <v>4bl42</v>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f>Sheet1!A217</f>
-        <v>jva76</v>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f>Sheet1!A231</f>
-        <v>rbq81</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f>Sheet1!A245</f>
-        <v>tad21</v>
-      </c>
-      <c r="S6" s="4" t="str">
-        <f>Sheet1!A259</f>
-        <v>9ds24</v>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f>Sheet1!A273</f>
-        <v>1om81</v>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f>Sheet1!A287</f>
-        <v>9mp31</v>
-      </c>
-      <c r="V6" s="4" t="str">
-        <f>Sheet1!A301</f>
-        <v>ura16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>Sheet1!A8</f>
         <v>a7456</v>
@@ -5845,80 +5389,8 @@
         <f>Sheet1!A36</f>
         <v>yae64</v>
       </c>
-      <c r="D7" s="4" t="str">
-        <f>Sheet1!A50</f>
-        <v>m8414</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>Sheet1!A64</f>
-        <v>x7145</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f>Sheet1!A78</f>
-        <v>tfe26</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>Sheet1!A92</f>
-        <v>d8433</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>Sheet1!A106</f>
-        <v>a0214</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f>Sheet1!A120</f>
-        <v>ize12</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>Sheet1!A134</f>
-        <v>i4771</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>Sheet1!A148</f>
-        <v>xl425</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>Sheet1!A162</f>
-        <v>hl665</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f>Sheet1!A176</f>
-        <v>s4h71</v>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>Sheet1!A190</f>
-        <v>eet13</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>Sheet1!A204</f>
-        <v>0zf22</v>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f>Sheet1!A218</f>
-        <v>2yo22</v>
-      </c>
-      <c r="Q7" s="4" t="str">
-        <f>Sheet1!A232</f>
-        <v>8rb84</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f>Sheet1!A246</f>
-        <v>7q653</v>
-      </c>
-      <c r="S7" s="4" t="str">
-        <f>Sheet1!A260</f>
-        <v>qyf72</v>
-      </c>
-      <c r="T7" s="4" t="str">
-        <f>Sheet1!A274</f>
-        <v>1fh71</v>
-      </c>
-      <c r="U7" s="4" t="str">
-        <f>Sheet1!A288</f>
-        <v>7fc75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f>Sheet1!A9</f>
         <v>kyh22</v>
@@ -5931,80 +5403,8 @@
         <f>Sheet1!A37</f>
         <v>jn355</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f>Sheet1!A51</f>
-        <v>uc355</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>Sheet1!A65</f>
-        <v>moc23</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f>Sheet1!A79</f>
-        <v>d9e13</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>Sheet1!A93</f>
-        <v>ed212</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f>Sheet1!A107</f>
-        <v>yyx61</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>Sheet1!A121</f>
-        <v>rfw51</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>Sheet1!A135</f>
-        <v>aid83</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>Sheet1!A149</f>
-        <v>i3572</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>Sheet1!A163</f>
-        <v>1rw75</v>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f>Sheet1!A177</f>
-        <v>mkd14</v>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f>Sheet1!A191</f>
-        <v>23h51</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f>Sheet1!A205</f>
-        <v>kns22</v>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f>Sheet1!A219</f>
-        <v>a1j24</v>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f>Sheet1!A233</f>
-        <v>r0t23</v>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f>Sheet1!A247</f>
-        <v>90m72</v>
-      </c>
-      <c r="S8" s="4" t="str">
-        <f>Sheet1!A261</f>
-        <v>ayd85</v>
-      </c>
-      <c r="T8" s="4" t="str">
-        <f>Sheet1!A275</f>
-        <v>8h213</v>
-      </c>
-      <c r="U8" s="4" t="str">
-        <f>Sheet1!A289</f>
-        <v>4tx36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f>Sheet1!A10</f>
         <v>qvw53</v>
@@ -6017,80 +5417,8 @@
         <f>Sheet1!A38</f>
         <v>wsx72</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f>Sheet1!A52</f>
-        <v>4j732</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>Sheet1!A66</f>
-        <v>zmg12</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f>Sheet1!A80</f>
-        <v>g6n45</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f>Sheet1!A94</f>
-        <v>qsd43</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>Sheet1!A108</f>
-        <v>nh716</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f>Sheet1!A122</f>
-        <v>uv536</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>Sheet1!A136</f>
-        <v>l2e31</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>Sheet1!A150</f>
-        <v>zy445</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>Sheet1!A164</f>
-        <v>thd25</v>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f>Sheet1!A178</f>
-        <v>lqm46</v>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>Sheet1!A192</f>
-        <v>g0085</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f>Sheet1!A206</f>
-        <v>uve64</v>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f>Sheet1!A220</f>
-        <v>d3c71</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f>Sheet1!A234</f>
-        <v>x2d82</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f>Sheet1!A248</f>
-        <v>b8w63</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f>Sheet1!A262</f>
-        <v>cfx52</v>
-      </c>
-      <c r="T9" s="4" t="str">
-        <f>Sheet1!A276</f>
-        <v>z4s63</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f>Sheet1!A290</f>
-        <v>x1j24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
         <f>Sheet1!A11</f>
         <v>6ow61</v>
@@ -6103,80 +5431,8 @@
         <f>Sheet1!A39</f>
         <v>xus75</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f>Sheet1!A53</f>
-        <v>ual76</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f>Sheet1!A67</f>
-        <v>xzx84</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f>Sheet1!A81</f>
-        <v>chu82</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f>Sheet1!A95</f>
-        <v>fit41</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>Sheet1!A109</f>
-        <v>f9q11</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f>Sheet1!A123</f>
-        <v>1yz15</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>Sheet1!A137</f>
-        <v>bvw72</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>Sheet1!A151</f>
-        <v>kyh36</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>Sheet1!A165</f>
-        <v>cim15</v>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f>Sheet1!A179</f>
-        <v>d8u53</v>
-      </c>
-      <c r="N10" s="4" t="str">
-        <f>Sheet1!A193</f>
-        <v>sjv83</v>
-      </c>
-      <c r="O10" s="4" t="str">
-        <f>Sheet1!A207</f>
-        <v>hfa83</v>
-      </c>
-      <c r="P10" s="4" t="str">
-        <f>Sheet1!A221</f>
-        <v>kka43</v>
-      </c>
-      <c r="Q10" s="4" t="str">
-        <f>Sheet1!A235</f>
-        <v>4nx81</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <f>Sheet1!A249</f>
-        <v>evx11</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <f>Sheet1!A263</f>
-        <v>snd43</v>
-      </c>
-      <c r="T10" s="4" t="str">
-        <f>Sheet1!A277</f>
-        <v>oti35</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <f>Sheet1!A291</f>
-        <v>3z144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f>Sheet1!A12</f>
         <v>b8j23</v>
@@ -6189,80 +5445,8 @@
         <f>Sheet1!A40</f>
         <v>65l46</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <f>Sheet1!A54</f>
-        <v>nij26</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f>Sheet1!A68</f>
-        <v>7ur16</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f>Sheet1!A82</f>
-        <v>mb276</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f>Sheet1!A96</f>
-        <v>w5d36</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>Sheet1!A110</f>
-        <v>cf582</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f>Sheet1!A124</f>
-        <v>jhz71</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f>Sheet1!A138</f>
-        <v>ism73</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f>Sheet1!A152</f>
-        <v>aut13</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f>Sheet1!A166</f>
-        <v>ckv83</v>
-      </c>
-      <c r="M11" s="4" t="str">
-        <f>Sheet1!A180</f>
-        <v>sui16</v>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f>Sheet1!A194</f>
-        <v>oea31</v>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f>Sheet1!A208</f>
-        <v>01k82</v>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f>Sheet1!A222</f>
-        <v>vcd76</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f>Sheet1!A236</f>
-        <v>fh781</v>
-      </c>
-      <c r="R11" s="4" t="str">
-        <f>Sheet1!A250</f>
-        <v>xnk16</v>
-      </c>
-      <c r="S11" s="4" t="str">
-        <f>Sheet1!A264</f>
-        <v>r8h22</v>
-      </c>
-      <c r="T11" s="4" t="str">
-        <f>Sheet1!A278</f>
-        <v>jqi66</v>
-      </c>
-      <c r="U11" s="4" t="str">
-        <f>Sheet1!A292</f>
-        <v>j7512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>Sheet1!A13</f>
         <v>ksf73</v>
@@ -6275,80 +5459,8 @@
         <f>Sheet1!A41</f>
         <v>h2b82</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f>Sheet1!A55</f>
-        <v>35i61</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f>Sheet1!A69</f>
-        <v>kd444</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f>Sheet1!A83</f>
-        <v>qmi22</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f>Sheet1!A97</f>
-        <v>p8v34</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>Sheet1!A111</f>
-        <v>84m55</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f>Sheet1!A125</f>
-        <v>vbv44</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>Sheet1!A139</f>
-        <v>s0334</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>Sheet1!A153</f>
-        <v>ryr76</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f>Sheet1!A167</f>
-        <v>amm45</v>
-      </c>
-      <c r="M12" s="4" t="str">
-        <f>Sheet1!A181</f>
-        <v>nab21</v>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f>Sheet1!A195</f>
-        <v>brc13</v>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f>Sheet1!A209</f>
-        <v>68v35</v>
-      </c>
-      <c r="P12" s="4" t="str">
-        <f>Sheet1!A223</f>
-        <v>d7s71</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f>Sheet1!A237</f>
-        <v>mel23</v>
-      </c>
-      <c r="R12" s="4" t="str">
-        <f>Sheet1!A251</f>
-        <v>3h652</v>
-      </c>
-      <c r="S12" s="4" t="str">
-        <f>Sheet1!A265</f>
-        <v>v4684</v>
-      </c>
-      <c r="T12" s="4" t="str">
-        <f>Sheet1!A279</f>
-        <v>7cj51</v>
-      </c>
-      <c r="U12" s="4" t="str">
-        <f>Sheet1!A293</f>
-        <v>rc531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="13" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Sheet1!A14</f>
         <v>4wm56</v>
@@ -6361,80 +5473,8 @@
         <f>Sheet1!A42</f>
         <v>igm25</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f>Sheet1!A56</f>
-        <v>04m71</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f>Sheet1!A70</f>
-        <v>za351</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>Sheet1!A84</f>
-        <v>s5j22</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f>Sheet1!A98</f>
-        <v>kar23</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>Sheet1!A112</f>
-        <v>v6i85</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f>Sheet1!A126</f>
-        <v>c6g83</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f>Sheet1!A140</f>
-        <v>zf553</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>Sheet1!A154</f>
-        <v>jhz31</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f>Sheet1!A168</f>
-        <v>m1y63</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f>Sheet1!A182</f>
-        <v>nkn31</v>
-      </c>
-      <c r="N13" s="4" t="str">
-        <f>Sheet1!A196</f>
-        <v>7d736</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f>Sheet1!A210</f>
-        <v>uhn82</v>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f>Sheet1!A224</f>
-        <v>il841</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f>Sheet1!A238</f>
-        <v>j2k42</v>
-      </c>
-      <c r="R13" s="4" t="str">
-        <f>Sheet1!A252</f>
-        <v>8b441</v>
-      </c>
-      <c r="S13" s="4" t="str">
-        <f>Sheet1!A266</f>
-        <v>h1213</v>
-      </c>
-      <c r="T13" s="4" t="str">
-        <f>Sheet1!A280</f>
-        <v>dy064</v>
-      </c>
-      <c r="U13" s="4" t="str">
-        <f>Sheet1!A294</f>
-        <v>wqo54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="50" customHeight="1">
+    </row>
+    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
         <f>Sheet1!A15</f>
         <v>rw416</v>
@@ -6447,678 +5487,1728 @@
         <f>Sheet1!A43</f>
         <v>esf75</v>
       </c>
-      <c r="D14" s="4" t="str">
+    </row>
+    <row r="15" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f>Sheet1!A44</f>
+        <v>vcb13</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>Sheet1!A58</f>
+        <v>nry64</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>Sheet1!A72</f>
+        <v>0hi84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f>Sheet1!A45</f>
+        <v>w2z31</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>Sheet1!A59</f>
+        <v>9lh31</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>Sheet1!A73</f>
+        <v>lsj64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
+        <f>Sheet1!A46</f>
+        <v>42m46</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>Sheet1!A60</f>
+        <v>bce15</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>Sheet1!A74</f>
+        <v>hcu64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f>Sheet1!A47</f>
+        <v>bei33</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>Sheet1!A61</f>
+        <v>4ht21</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>Sheet1!A75</f>
+        <v>cuy62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
+        <f>Sheet1!A48</f>
+        <v>qm561</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>Sheet1!A62</f>
+        <v>vm332</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>Sheet1!A76</f>
+        <v>bs272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f>Sheet1!A49</f>
+        <v>ubp14</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>Sheet1!A63</f>
+        <v>7w712</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>Sheet1!A77</f>
+        <v>7s511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f>Sheet1!A50</f>
+        <v>m8414</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>Sheet1!A64</f>
+        <v>x7145</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>Sheet1!A78</f>
+        <v>tfe26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f>Sheet1!A51</f>
+        <v>uc355</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>Sheet1!A65</f>
+        <v>moc23</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>Sheet1!A79</f>
+        <v>d9e13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f>Sheet1!A52</f>
+        <v>4j732</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>Sheet1!A66</f>
+        <v>zmg12</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>Sheet1!A80</f>
+        <v>g6n45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f>Sheet1!A53</f>
+        <v>ual76</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>Sheet1!A67</f>
+        <v>xzx84</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>Sheet1!A81</f>
+        <v>chu82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f>Sheet1!A54</f>
+        <v>nij26</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>Sheet1!A68</f>
+        <v>7ur16</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>Sheet1!A82</f>
+        <v>mb276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f>Sheet1!A55</f>
+        <v>35i61</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>Sheet1!A69</f>
+        <v>kd444</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>Sheet1!A83</f>
+        <v>qmi22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f>Sheet1!A56</f>
+        <v>04m71</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>Sheet1!A70</f>
+        <v>za351</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>Sheet1!A84</f>
+        <v>s5j22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
         <f>Sheet1!A57</f>
         <v>bca73</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="B28" s="4" t="str">
         <f>Sheet1!A71</f>
         <v>3g571</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="C28" s="4" t="str">
         <f>Sheet1!A85</f>
         <v>lal56</v>
       </c>
-      <c r="G14" s="4" t="str">
+    </row>
+    <row r="29" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
+        <f>Sheet1!A86</f>
+        <v>ndm42</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>Sheet1!A100</f>
+        <v>vu321</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>Sheet1!A114</f>
+        <v>2b574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
+        <f>Sheet1!A87</f>
+        <v>dal34</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>Sheet1!A101</f>
+        <v>5vi61</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>Sheet1!A115</f>
+        <v>tv364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="str">
+        <f>Sheet1!A88</f>
+        <v>agb86</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>Sheet1!A102</f>
+        <v>b6j23</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>Sheet1!A116</f>
+        <v>go346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="str">
+        <f>Sheet1!A89</f>
+        <v>c4655</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>Sheet1!A103</f>
+        <v>e6e36</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>Sheet1!A117</f>
+        <v>f9463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="str">
+        <f>Sheet1!A90</f>
+        <v>ctw11</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>Sheet1!A104</f>
+        <v>e2354</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>Sheet1!A118</f>
+        <v>0mv55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="str">
+        <f>Sheet1!A91</f>
+        <v>7x173</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>Sheet1!A105</f>
+        <v>8ta45</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f>Sheet1!A119</f>
+        <v>p8q25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="str">
+        <f>Sheet1!A92</f>
+        <v>d8433</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>Sheet1!A106</f>
+        <v>a0214</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>Sheet1!A120</f>
+        <v>ize12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="str">
+        <f>Sheet1!A93</f>
+        <v>ed212</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>Sheet1!A107</f>
+        <v>yyx61</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>Sheet1!A121</f>
+        <v>rfw51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="str">
+        <f>Sheet1!A94</f>
+        <v>qsd43</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>Sheet1!A108</f>
+        <v>nh716</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>Sheet1!A122</f>
+        <v>uv536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="str">
+        <f>Sheet1!A95</f>
+        <v>fit41</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>Sheet1!A109</f>
+        <v>f9q11</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>Sheet1!A123</f>
+        <v>1yz15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="str">
+        <f>Sheet1!A96</f>
+        <v>w5d36</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>Sheet1!A110</f>
+        <v>cf582</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>Sheet1!A124</f>
+        <v>jhz71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="str">
+        <f>Sheet1!A97</f>
+        <v>p8v34</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>Sheet1!A111</f>
+        <v>84m55</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>Sheet1!A125</f>
+        <v>vbv44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="str">
+        <f>Sheet1!A98</f>
+        <v>kar23</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>Sheet1!A112</f>
+        <v>v6i85</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>Sheet1!A126</f>
+        <v>c6g83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="str">
         <f>Sheet1!A99</f>
         <v>8mh76</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="B42" s="4" t="str">
         <f>Sheet1!A113</f>
         <v>tbu21</v>
       </c>
-      <c r="I14" s="4" t="str">
+      <c r="C42" s="4" t="str">
         <f>Sheet1!A127</f>
         <v>s7u41</v>
       </c>
-      <c r="J14" s="4" t="str">
+    </row>
+    <row r="43" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="str">
+        <f>Sheet1!A128</f>
+        <v>d4x41</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>Sheet1!A142</f>
+        <v>dyf23</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>Sheet1!A156</f>
+        <v>kpt63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="str">
+        <f>Sheet1!A129</f>
+        <v>b8g12</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>Sheet1!A143</f>
+        <v>6lk32</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>Sheet1!A157</f>
+        <v>eyk62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="str">
+        <f>Sheet1!A130</f>
+        <v>30i65</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>Sheet1!A144</f>
+        <v>nmn84</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>Sheet1!A158</f>
+        <v>ntf82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="str">
+        <f>Sheet1!A131</f>
+        <v>sid22</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>Sheet1!A145</f>
+        <v>5vn54</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>Sheet1!A159</f>
+        <v>kdr26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="str">
+        <f>Sheet1!A132</f>
+        <v>i5b85</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>Sheet1!A146</f>
+        <v>hzb46</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>Sheet1!A160</f>
+        <v>ovr55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="str">
+        <f>Sheet1!A133</f>
+        <v>dkj82</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>Sheet1!A147</f>
+        <v>z3m85</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>Sheet1!A161</f>
+        <v>cfk44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="str">
+        <f>Sheet1!A134</f>
+        <v>i4771</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>Sheet1!A148</f>
+        <v>xl425</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>Sheet1!A162</f>
+        <v>hl665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="str">
+        <f>Sheet1!A135</f>
+        <v>aid83</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>Sheet1!A149</f>
+        <v>i3572</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>Sheet1!A163</f>
+        <v>1rw75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="str">
+        <f>Sheet1!A136</f>
+        <v>l2e31</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>Sheet1!A150</f>
+        <v>zy445</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>Sheet1!A164</f>
+        <v>thd25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="str">
+        <f>Sheet1!A137</f>
+        <v>bvw72</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>Sheet1!A151</f>
+        <v>kyh36</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>Sheet1!A165</f>
+        <v>cim15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="str">
+        <f>Sheet1!A138</f>
+        <v>ism73</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>Sheet1!A152</f>
+        <v>aut13</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>Sheet1!A166</f>
+        <v>ckv83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="str">
+        <f>Sheet1!A139</f>
+        <v>s0334</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>Sheet1!A153</f>
+        <v>ryr76</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>Sheet1!A167</f>
+        <v>amm45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="str">
+        <f>Sheet1!A140</f>
+        <v>zf553</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>Sheet1!A154</f>
+        <v>jhz31</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>Sheet1!A168</f>
+        <v>m1y63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="str">
         <f>Sheet1!A141</f>
         <v>f4o41</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="B56" s="4" t="str">
         <f>Sheet1!A155</f>
         <v>yj046</v>
       </c>
-      <c r="L14" s="4" t="str">
+      <c r="C56" s="4" t="str">
         <f>Sheet1!A169</f>
         <v>ves13</v>
       </c>
-      <c r="M14" s="4" t="str">
+    </row>
+    <row r="57" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="str">
+        <f>Sheet1!A170</f>
+        <v>srt41</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>Sheet1!A184</f>
+        <v>zxq33</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>Sheet1!A198</f>
+        <v>fmy53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="str">
+        <f>Sheet1!A171</f>
+        <v>u7a84</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>Sheet1!A185</f>
+        <v>gs065</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>Sheet1!A199</f>
+        <v>3x985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="str">
+        <f>Sheet1!A172</f>
+        <v>5k186</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>Sheet1!A186</f>
+        <v>e4p65</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f>Sheet1!A200</f>
+        <v>8wl55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="str">
+        <f>Sheet1!A173</f>
+        <v>ha843</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>Sheet1!A187</f>
+        <v>xt462</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f>Sheet1!A201</f>
+        <v>9em63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="str">
+        <f>Sheet1!A174</f>
+        <v>sko34</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f>Sheet1!A188</f>
+        <v>yyj35</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f>Sheet1!A202</f>
+        <v>wq272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="str">
+        <f>Sheet1!A175</f>
+        <v>hym35</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f>Sheet1!A189</f>
+        <v>upt12</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f>Sheet1!A203</f>
+        <v>4bl42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="str">
+        <f>Sheet1!A176</f>
+        <v>s4h71</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f>Sheet1!A190</f>
+        <v>eet13</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f>Sheet1!A204</f>
+        <v>0zf22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="str">
+        <f>Sheet1!A177</f>
+        <v>mkd14</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f>Sheet1!A191</f>
+        <v>23h51</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f>Sheet1!A205</f>
+        <v>kns22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="str">
+        <f>Sheet1!A178</f>
+        <v>lqm46</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <f>Sheet1!A192</f>
+        <v>g0085</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f>Sheet1!A206</f>
+        <v>uve64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="str">
+        <f>Sheet1!A179</f>
+        <v>d8u53</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <f>Sheet1!A193</f>
+        <v>sjv83</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f>Sheet1!A207</f>
+        <v>hfa83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="str">
+        <f>Sheet1!A180</f>
+        <v>sui16</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <f>Sheet1!A194</f>
+        <v>oea31</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f>Sheet1!A208</f>
+        <v>01k82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="str">
+        <f>Sheet1!A181</f>
+        <v>nab21</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <f>Sheet1!A195</f>
+        <v>brc13</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f>Sheet1!A209</f>
+        <v>68v35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="str">
+        <f>Sheet1!A182</f>
+        <v>nkn31</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <f>Sheet1!A196</f>
+        <v>7d736</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f>Sheet1!A210</f>
+        <v>uhn82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="str">
         <f>Sheet1!A183</f>
         <v>b3331</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="B70" s="4" t="str">
         <f>Sheet1!A197</f>
         <v>k1o66</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="C70" s="4" t="str">
         <f>Sheet1!A211</f>
         <v>6rk83</v>
       </c>
-      <c r="P14" s="4" t="str">
+    </row>
+    <row r="71" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="str">
+        <f>Sheet1!A212</f>
+        <v>guy22</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <f>Sheet1!A226</f>
+        <v>7i786</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f>Sheet1!A240</f>
+        <v>9fb54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="str">
+        <f>Sheet1!A213</f>
+        <v>txk36</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <f>Sheet1!A227</f>
+        <v>o9i83</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f>Sheet1!A241</f>
+        <v>qh065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="str">
+        <f>Sheet1!A214</f>
+        <v>aq323</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <f>Sheet1!A228</f>
+        <v>45b85</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f>Sheet1!A242</f>
+        <v>5yb72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="str">
+        <f>Sheet1!A215</f>
+        <v>epb14</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <f>Sheet1!A229</f>
+        <v>ckr44</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f>Sheet1!A243</f>
+        <v>ovs74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="str">
+        <f>Sheet1!A216</f>
+        <v>tnm25</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <f>Sheet1!A230</f>
+        <v>cmd44</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f>Sheet1!A244</f>
+        <v>4pn14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="str">
+        <f>Sheet1!A217</f>
+        <v>jva76</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <f>Sheet1!A231</f>
+        <v>rbq81</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f>Sheet1!A245</f>
+        <v>tad21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="str">
+        <f>Sheet1!A218</f>
+        <v>2yo22</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <f>Sheet1!A232</f>
+        <v>8rb84</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f>Sheet1!A246</f>
+        <v>7q653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="str">
+        <f>Sheet1!A219</f>
+        <v>a1j24</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <f>Sheet1!A233</f>
+        <v>r0t23</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f>Sheet1!A247</f>
+        <v>90m72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="str">
+        <f>Sheet1!A220</f>
+        <v>d3c71</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <f>Sheet1!A234</f>
+        <v>x2d82</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f>Sheet1!A248</f>
+        <v>b8w63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="str">
+        <f>Sheet1!A221</f>
+        <v>kka43</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <f>Sheet1!A235</f>
+        <v>4nx81</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f>Sheet1!A249</f>
+        <v>evx11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="str">
+        <f>Sheet1!A222</f>
+        <v>vcd76</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <f>Sheet1!A236</f>
+        <v>fh781</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f>Sheet1!A250</f>
+        <v>xnk16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="str">
+        <f>Sheet1!A223</f>
+        <v>d7s71</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <f>Sheet1!A237</f>
+        <v>mel23</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f>Sheet1!A251</f>
+        <v>3h652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="str">
+        <f>Sheet1!A224</f>
+        <v>il841</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <f>Sheet1!A238</f>
+        <v>j2k42</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f>Sheet1!A252</f>
+        <v>8b441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="str">
         <f>Sheet1!A225</f>
         <v>7hb62</v>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="B84" s="4" t="str">
         <f>Sheet1!A239</f>
         <v>4pb43</v>
       </c>
-      <c r="R14" s="4" t="str">
+      <c r="C84" s="4" t="str">
         <f>Sheet1!A253</f>
         <v>iv483</v>
       </c>
-      <c r="S14" s="4" t="str">
+    </row>
+    <row r="85" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="str">
+        <f>Sheet1!A254</f>
+        <v>y5526</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <f>Sheet1!A268</f>
+        <v>i8574</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f>Sheet1!A282</f>
+        <v>d0y85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="str">
+        <f>Sheet1!A255</f>
+        <v>mfb44</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <f>Sheet1!A269</f>
+        <v>5gj22</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f>Sheet1!A283</f>
+        <v>hvu33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="str">
+        <f>Sheet1!A256</f>
+        <v>kzj85</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <f>Sheet1!A270</f>
+        <v>p2113</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f>Sheet1!A284</f>
+        <v>3fg63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="str">
+        <f>Sheet1!A257</f>
+        <v>qc621</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <f>Sheet1!A271</f>
+        <v>b1462</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f>Sheet1!A285</f>
+        <v>wv056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="str">
+        <f>Sheet1!A258</f>
+        <v>s4441</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <f>Sheet1!A272</f>
+        <v>w9c21</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f>Sheet1!A286</f>
+        <v>m4642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="str">
+        <f>Sheet1!A259</f>
+        <v>9ds24</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <f>Sheet1!A273</f>
+        <v>1om81</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f>Sheet1!A287</f>
+        <v>9mp31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="str">
+        <f>Sheet1!A260</f>
+        <v>qyf72</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <f>Sheet1!A274</f>
+        <v>1fh71</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f>Sheet1!A288</f>
+        <v>7fc75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="str">
+        <f>Sheet1!A261</f>
+        <v>ayd85</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <f>Sheet1!A275</f>
+        <v>8h213</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f>Sheet1!A289</f>
+        <v>4tx36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="str">
+        <f>Sheet1!A262</f>
+        <v>cfx52</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <f>Sheet1!A276</f>
+        <v>z4s63</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f>Sheet1!A290</f>
+        <v>x1j24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="str">
+        <f>Sheet1!A263</f>
+        <v>snd43</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <f>Sheet1!A277</f>
+        <v>oti35</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f>Sheet1!A291</f>
+        <v>3z144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="str">
+        <f>Sheet1!A264</f>
+        <v>r8h22</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <f>Sheet1!A278</f>
+        <v>jqi66</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f>Sheet1!A292</f>
+        <v>j7512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="str">
+        <f>Sheet1!A265</f>
+        <v>v4684</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <f>Sheet1!A279</f>
+        <v>7cj51</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f>Sheet1!A293</f>
+        <v>rc531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="str">
+        <f>Sheet1!A266</f>
+        <v>h1213</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <f>Sheet1!A280</f>
+        <v>dy064</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f>Sheet1!A294</f>
+        <v>wqo54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="str">
         <f>Sheet1!A267</f>
         <v>ph922</v>
       </c>
-      <c r="T14" s="4" t="str">
+      <c r="B98" s="4" t="str">
         <f>Sheet1!A281</f>
         <v>jlv64</v>
       </c>
-      <c r="U14" s="4" t="str">
+      <c r="C98" s="4" t="str">
         <f>Sheet1!A295</f>
         <v>l3056</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="50" customHeight="1"/>
-    <row r="16" spans="1:22" ht="50" customHeight="1"/>
-    <row r="17" ht="50" customHeight="1"/>
-    <row r="18" ht="50" customHeight="1"/>
-    <row r="19" ht="50" customHeight="1"/>
-    <row r="20" ht="50" customHeight="1"/>
-    <row r="21" ht="50" customHeight="1"/>
-    <row r="22" ht="50" customHeight="1"/>
-    <row r="23" ht="50" customHeight="1"/>
-    <row r="24" ht="50" customHeight="1"/>
-    <row r="25" ht="50" customHeight="1"/>
-    <row r="26" ht="50" customHeight="1"/>
-    <row r="27" ht="50" customHeight="1"/>
-    <row r="28" ht="50" customHeight="1"/>
-    <row r="29" ht="50" customHeight="1"/>
-    <row r="30" ht="50" customHeight="1"/>
-    <row r="31" ht="50" customHeight="1"/>
-    <row r="32" ht="50" customHeight="1"/>
-    <row r="33" ht="50" customHeight="1"/>
-    <row r="34" ht="50" customHeight="1"/>
-    <row r="35" ht="50" customHeight="1"/>
-    <row r="36" ht="50" customHeight="1"/>
-    <row r="37" ht="50" customHeight="1"/>
-    <row r="38" ht="50" customHeight="1"/>
-    <row r="39" ht="50" customHeight="1"/>
-    <row r="40" ht="50" customHeight="1"/>
-    <row r="41" ht="50" customHeight="1"/>
-    <row r="42" ht="50" customHeight="1"/>
-    <row r="43" ht="50" customHeight="1"/>
-    <row r="44" ht="50" customHeight="1"/>
-    <row r="45" ht="50" customHeight="1"/>
-    <row r="46" ht="50" customHeight="1"/>
-    <row r="47" ht="50" customHeight="1"/>
-    <row r="48" ht="50" customHeight="1"/>
-    <row r="49" ht="50" customHeight="1"/>
-    <row r="50" ht="50" customHeight="1"/>
-    <row r="51" ht="50" customHeight="1"/>
-    <row r="52" ht="50" customHeight="1"/>
-    <row r="53" ht="50" customHeight="1"/>
-    <row r="54" ht="50" customHeight="1"/>
-    <row r="55" ht="50" customHeight="1"/>
-    <row r="56" ht="50" customHeight="1"/>
-    <row r="57" ht="50" customHeight="1"/>
-    <row r="58" ht="50" customHeight="1"/>
-    <row r="59" ht="50" customHeight="1"/>
-    <row r="60" ht="50" customHeight="1"/>
-    <row r="61" ht="50" customHeight="1"/>
-    <row r="62" ht="50" customHeight="1"/>
-    <row r="63" ht="50" customHeight="1"/>
-    <row r="64" ht="50" customHeight="1"/>
-    <row r="65" ht="50" customHeight="1"/>
-    <row r="66" ht="50" customHeight="1"/>
-    <row r="67" ht="50" customHeight="1"/>
-    <row r="68" ht="50" customHeight="1"/>
-    <row r="69" ht="50" customHeight="1"/>
-    <row r="70" ht="50" customHeight="1"/>
-    <row r="71" ht="50" customHeight="1"/>
-    <row r="72" ht="50" customHeight="1"/>
-    <row r="73" ht="50" customHeight="1"/>
-    <row r="74" ht="50" customHeight="1"/>
-    <row r="75" ht="50" customHeight="1"/>
-    <row r="76" ht="50" customHeight="1"/>
-    <row r="77" ht="50" customHeight="1"/>
-    <row r="78" ht="50" customHeight="1"/>
-    <row r="79" ht="50" customHeight="1"/>
-    <row r="80" ht="50" customHeight="1"/>
-    <row r="81" ht="50" customHeight="1"/>
-    <row r="82" ht="50" customHeight="1"/>
-    <row r="83" ht="50" customHeight="1"/>
-    <row r="84" ht="50" customHeight="1"/>
-    <row r="85" ht="50" customHeight="1"/>
-    <row r="86" ht="50" customHeight="1"/>
-    <row r="87" ht="50" customHeight="1"/>
-    <row r="88" ht="50" customHeight="1"/>
-    <row r="89" ht="50" customHeight="1"/>
-    <row r="90" ht="50" customHeight="1"/>
-    <row r="91" ht="50" customHeight="1"/>
-    <row r="92" ht="50" customHeight="1"/>
-    <row r="93" ht="50" customHeight="1"/>
-    <row r="94" ht="50" customHeight="1"/>
-    <row r="95" ht="50" customHeight="1"/>
-    <row r="96" ht="50" customHeight="1"/>
-    <row r="97" ht="50" customHeight="1"/>
-    <row r="98" ht="50" customHeight="1"/>
-    <row r="99" ht="50" customHeight="1"/>
-    <row r="100" ht="50" customHeight="1"/>
-    <row r="101" ht="50" customHeight="1"/>
-    <row r="102" ht="50" customHeight="1"/>
-    <row r="103" ht="50" customHeight="1"/>
-    <row r="104" ht="50" customHeight="1"/>
-    <row r="105" ht="50" customHeight="1"/>
-    <row r="106" ht="50" customHeight="1"/>
-    <row r="107" ht="50" customHeight="1"/>
-    <row r="108" ht="50" customHeight="1"/>
-    <row r="109" ht="50" customHeight="1"/>
-    <row r="110" ht="50" customHeight="1"/>
-    <row r="111" ht="50" customHeight="1"/>
-    <row r="112" ht="50" customHeight="1"/>
-    <row r="113" ht="50" customHeight="1"/>
-    <row r="114" ht="50" customHeight="1"/>
-    <row r="115" ht="50" customHeight="1"/>
-    <row r="116" ht="50" customHeight="1"/>
-    <row r="117" ht="50" customHeight="1"/>
-    <row r="118" ht="50" customHeight="1"/>
-    <row r="119" ht="50" customHeight="1"/>
-    <row r="120" ht="50" customHeight="1"/>
-    <row r="121" ht="50" customHeight="1"/>
-    <row r="122" ht="50" customHeight="1"/>
-    <row r="123" ht="50" customHeight="1"/>
-    <row r="124" ht="50" customHeight="1"/>
-    <row r="125" ht="50" customHeight="1"/>
-    <row r="126" ht="50" customHeight="1"/>
-    <row r="127" ht="50" customHeight="1"/>
-    <row r="128" ht="50" customHeight="1"/>
-    <row r="129" ht="50" customHeight="1"/>
-    <row r="130" ht="50" customHeight="1"/>
-    <row r="131" ht="50" customHeight="1"/>
-    <row r="132" ht="50" customHeight="1"/>
-    <row r="133" ht="50" customHeight="1"/>
-    <row r="134" ht="50" customHeight="1"/>
-    <row r="135" ht="50" customHeight="1"/>
-    <row r="136" ht="50" customHeight="1"/>
-    <row r="137" ht="50" customHeight="1"/>
-    <row r="138" ht="50" customHeight="1"/>
-    <row r="139" ht="50" customHeight="1"/>
-    <row r="140" ht="50" customHeight="1"/>
-    <row r="141" ht="50" customHeight="1"/>
-    <row r="142" ht="50" customHeight="1"/>
-    <row r="143" ht="50" customHeight="1"/>
-    <row r="144" ht="50" customHeight="1"/>
-    <row r="145" ht="50" customHeight="1"/>
-    <row r="146" ht="50" customHeight="1"/>
-    <row r="147" ht="50" customHeight="1"/>
-    <row r="148" ht="50" customHeight="1"/>
-    <row r="149" ht="50" customHeight="1"/>
-    <row r="150" ht="50" customHeight="1"/>
-    <row r="151" ht="50" customHeight="1"/>
-    <row r="152" ht="50" customHeight="1"/>
-    <row r="153" ht="50" customHeight="1"/>
-    <row r="154" ht="50" customHeight="1"/>
-    <row r="155" ht="50" customHeight="1"/>
-    <row r="156" ht="50" customHeight="1"/>
-    <row r="157" ht="50" customHeight="1"/>
-    <row r="158" ht="50" customHeight="1"/>
-    <row r="159" ht="50" customHeight="1"/>
-    <row r="160" ht="50" customHeight="1"/>
-    <row r="161" ht="50" customHeight="1"/>
-    <row r="162" ht="50" customHeight="1"/>
-    <row r="163" ht="50" customHeight="1"/>
-    <row r="164" ht="50" customHeight="1"/>
-    <row r="165" ht="50" customHeight="1"/>
-    <row r="166" ht="50" customHeight="1"/>
-    <row r="167" ht="50" customHeight="1"/>
-    <row r="168" ht="50" customHeight="1"/>
-    <row r="169" ht="50" customHeight="1"/>
-    <row r="170" ht="50" customHeight="1"/>
-    <row r="171" ht="50" customHeight="1"/>
-    <row r="172" ht="50" customHeight="1"/>
-    <row r="173" ht="50" customHeight="1"/>
-    <row r="174" ht="50" customHeight="1"/>
-    <row r="175" ht="50" customHeight="1"/>
-    <row r="176" ht="50" customHeight="1"/>
-    <row r="177" ht="50" customHeight="1"/>
-    <row r="178" ht="50" customHeight="1"/>
-    <row r="179" ht="50" customHeight="1"/>
-    <row r="180" ht="50" customHeight="1"/>
-    <row r="181" ht="50" customHeight="1"/>
-    <row r="182" ht="50" customHeight="1"/>
-    <row r="183" ht="50" customHeight="1"/>
-    <row r="184" ht="50" customHeight="1"/>
-    <row r="185" ht="50" customHeight="1"/>
-    <row r="186" ht="50" customHeight="1"/>
-    <row r="187" ht="50" customHeight="1"/>
-    <row r="188" ht="50" customHeight="1"/>
-    <row r="189" ht="50" customHeight="1"/>
-    <row r="190" ht="50" customHeight="1"/>
-    <row r="191" ht="50" customHeight="1"/>
-    <row r="192" ht="50" customHeight="1"/>
-    <row r="193" ht="50" customHeight="1"/>
-    <row r="194" ht="50" customHeight="1"/>
-    <row r="195" ht="50" customHeight="1"/>
-    <row r="196" ht="50" customHeight="1"/>
-    <row r="197" ht="50" customHeight="1"/>
-    <row r="198" ht="50" customHeight="1"/>
-    <row r="199" ht="50" customHeight="1"/>
-    <row r="200" ht="50" customHeight="1"/>
-    <row r="201" ht="50" customHeight="1"/>
-    <row r="202" ht="50" customHeight="1"/>
-    <row r="203" ht="50" customHeight="1"/>
-    <row r="204" ht="50" customHeight="1"/>
-    <row r="205" ht="50" customHeight="1"/>
-    <row r="206" ht="50" customHeight="1"/>
-    <row r="207" ht="50" customHeight="1"/>
-    <row r="208" ht="50" customHeight="1"/>
-    <row r="209" ht="50" customHeight="1"/>
-    <row r="210" ht="50" customHeight="1"/>
-    <row r="211" ht="50" customHeight="1"/>
-    <row r="212" ht="50" customHeight="1"/>
-    <row r="213" ht="50" customHeight="1"/>
-    <row r="214" ht="50" customHeight="1"/>
-    <row r="215" ht="50" customHeight="1"/>
-    <row r="216" ht="50" customHeight="1"/>
-    <row r="217" ht="50" customHeight="1"/>
-    <row r="218" ht="50" customHeight="1"/>
-    <row r="219" ht="50" customHeight="1"/>
-    <row r="220" ht="50" customHeight="1"/>
-    <row r="221" ht="50" customHeight="1"/>
-    <row r="222" ht="50" customHeight="1"/>
-    <row r="223" ht="50" customHeight="1"/>
-    <row r="224" ht="50" customHeight="1"/>
-    <row r="225" ht="50" customHeight="1"/>
-    <row r="226" ht="50" customHeight="1"/>
-    <row r="227" ht="50" customHeight="1"/>
-    <row r="228" ht="50" customHeight="1"/>
-    <row r="229" ht="50" customHeight="1"/>
-    <row r="230" ht="50" customHeight="1"/>
-    <row r="231" ht="50" customHeight="1"/>
-    <row r="232" ht="50" customHeight="1"/>
-    <row r="233" ht="50" customHeight="1"/>
-    <row r="234" ht="50" customHeight="1"/>
-    <row r="235" ht="50" customHeight="1"/>
-    <row r="236" ht="50" customHeight="1"/>
-    <row r="237" ht="50" customHeight="1"/>
-    <row r="238" ht="50" customHeight="1"/>
-    <row r="239" ht="50" customHeight="1"/>
-    <row r="240" ht="50" customHeight="1"/>
-    <row r="241" ht="50" customHeight="1"/>
-    <row r="242" ht="50" customHeight="1"/>
-    <row r="243" ht="50" customHeight="1"/>
-    <row r="244" ht="50" customHeight="1"/>
-    <row r="245" ht="50" customHeight="1"/>
-    <row r="246" ht="50" customHeight="1"/>
-    <row r="247" ht="50" customHeight="1"/>
-    <row r="248" ht="50" customHeight="1"/>
-    <row r="249" ht="50" customHeight="1"/>
-    <row r="250" ht="50" customHeight="1"/>
-    <row r="251" ht="50" customHeight="1"/>
-    <row r="252" ht="50" customHeight="1"/>
-    <row r="253" ht="50" customHeight="1"/>
-    <row r="254" ht="50" customHeight="1"/>
-    <row r="255" ht="50" customHeight="1"/>
-    <row r="256" ht="50" customHeight="1"/>
-    <row r="257" ht="50" customHeight="1"/>
-    <row r="258" ht="50" customHeight="1"/>
-    <row r="259" ht="50" customHeight="1"/>
-    <row r="260" ht="50" customHeight="1"/>
-    <row r="261" ht="50" customHeight="1"/>
-    <row r="262" ht="50" customHeight="1"/>
-    <row r="263" ht="50" customHeight="1"/>
-    <row r="264" ht="50" customHeight="1"/>
-    <row r="265" ht="50" customHeight="1"/>
-    <row r="266" ht="50" customHeight="1"/>
-    <row r="267" ht="50" customHeight="1"/>
-    <row r="268" ht="50" customHeight="1"/>
-    <row r="269" ht="50" customHeight="1"/>
-    <row r="270" ht="50" customHeight="1"/>
-    <row r="271" ht="50" customHeight="1"/>
-    <row r="272" ht="50" customHeight="1"/>
-    <row r="273" ht="50" customHeight="1"/>
-    <row r="274" ht="50" customHeight="1"/>
-    <row r="275" ht="50" customHeight="1"/>
-    <row r="276" ht="50" customHeight="1"/>
-    <row r="277" ht="50" customHeight="1"/>
-    <row r="278" ht="50" customHeight="1"/>
-    <row r="279" ht="50" customHeight="1"/>
-    <row r="280" ht="50" customHeight="1"/>
-    <row r="281" ht="50" customHeight="1"/>
-    <row r="282" ht="50" customHeight="1"/>
-    <row r="283" ht="50" customHeight="1"/>
-    <row r="284" ht="50" customHeight="1"/>
-    <row r="285" ht="50" customHeight="1"/>
-    <row r="286" ht="50" customHeight="1"/>
-    <row r="287" ht="50" customHeight="1"/>
-    <row r="288" ht="50" customHeight="1"/>
-    <row r="289" spans="1:1" ht="50" customHeight="1"/>
-    <row r="290" spans="1:1" ht="50" customHeight="1"/>
-    <row r="291" spans="1:1" ht="50" customHeight="1"/>
-    <row r="292" spans="1:1" ht="50" customHeight="1"/>
-    <row r="293" spans="1:1" ht="50" customHeight="1"/>
-    <row r="294" spans="1:1" ht="50" customHeight="1"/>
-    <row r="295" spans="1:1" ht="50" customHeight="1"/>
-    <row r="296" spans="1:1" ht="50" customHeight="1"/>
-    <row r="297" spans="1:1" ht="50" customHeight="1"/>
-    <row r="298" spans="1:1" ht="50" customHeight="1"/>
-    <row r="299" spans="1:1" ht="50" customHeight="1"/>
-    <row r="300" spans="1:1" ht="50" customHeight="1"/>
-    <row r="301" spans="1:1">
+    <row r="99" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="str">
+        <f>Sheet1!A296</f>
+        <v>d7g11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="str">
+        <f>Sheet1!A297</f>
+        <v>btl36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="str">
+        <f>Sheet1!A298</f>
+        <v>q5246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="str">
+        <f>Sheet1!A299</f>
+        <v>9yl53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="str">
+        <f>Sheet1!A300</f>
+        <v>7pl25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="str">
+        <f>Sheet1!A301</f>
+        <v>ura16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301">
         <f>Sheet1!A302</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302">
         <f>Sheet1!A303</f>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303">
         <f>Sheet1!A304</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304">
         <f>Sheet1!A305</f>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <f>Sheet1!A306</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <f>Sheet1!A307</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <f>Sheet1!A308</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <f>Sheet1!A309</f>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <f>Sheet1!A310</f>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <f>Sheet1!A311</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311">
         <f>Sheet1!A312</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312">
         <f>Sheet1!A313</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313">
         <f>Sheet1!A314</f>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314">
         <f>Sheet1!A315</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315">
         <f>Sheet1!A316</f>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316">
         <f>Sheet1!A317</f>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317">
         <f>Sheet1!A318</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318">
         <f>Sheet1!A319</f>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319">
         <f>Sheet1!A320</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320">
         <f>Sheet1!A321</f>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321">
         <f>Sheet1!A322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322">
         <f>Sheet1!A323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323">
         <f>Sheet1!A324</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324">
         <f>Sheet1!A325</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325">
         <f>Sheet1!A326</f>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326">
         <f>Sheet1!A327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327">
         <f>Sheet1!A328</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328">
         <f>Sheet1!A329</f>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329">
         <f>Sheet1!A330</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330">
         <f>Sheet1!A331</f>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331">
         <f>Sheet1!A332</f>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332">
         <f>Sheet1!A333</f>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333">
         <f>Sheet1!A334</f>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334">
         <f>Sheet1!A335</f>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335">
         <f>Sheet1!A336</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336">
         <f>Sheet1!A337</f>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337">
         <f>Sheet1!A338</f>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338">
         <f>Sheet1!A339</f>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339">
         <f>Sheet1!A340</f>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340">
         <f>Sheet1!A341</f>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341">
         <f>Sheet1!A342</f>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342">
         <f>Sheet1!A343</f>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343">
         <f>Sheet1!A344</f>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344">
         <f>Sheet1!A345</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345">
         <f>Sheet1!A346</f>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346">
         <f>Sheet1!A347</f>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347">
         <f>Sheet1!A348</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348">
         <f>Sheet1!A349</f>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349">
         <f>Sheet1!A350</f>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350">
         <f>Sheet1!A351</f>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351">
         <f>Sheet1!A352</f>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352">
         <f>Sheet1!A353</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353">
         <f>Sheet1!A354</f>
         <v>0</v>
